--- a/biology/Zoologie/Halichoeres_aestuaricola/Halichoeres_aestuaricola.xlsx
+++ b/biology/Zoologie/Halichoeres_aestuaricola/Halichoeres_aestuaricola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donzelle des mangroves
-Halichoeres aestuaricola, communément appelé la Donzelle des mangroves[2], est une espèce de poissons osseux de la famille des Labridae.
+Halichoeres aestuaricola, communément appelé la Donzelle des mangroves, est une espèce de poissons osseux de la famille des Labridae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halichoeres aestuaricola se rencontre sur les côtes du Pacifique Est depuis le golfe de Californie jusqu'à la Colombie[2] et ce à une profondeur de 0 à 5 m et plus généralement de 0 à 3 m[2].
-Cette espèce affectionne plus particulièrement les fonds sableux ou vaseux des mangroves et estuaires mais peut occasionnellement se rencontrer sur les fonds rocheux des côtes marines[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halichoeres aestuaricola se rencontre sur les côtes du Pacifique Est depuis le golfe de Californie jusqu'à la Colombie et ce à une profondeur de 0 à 5 m et plus généralement de 0 à 3 m.
+Cette espèce affectionne plus particulièrement les fonds sableux ou vaseux des mangroves et estuaires mais peut occasionnellement se rencontrer sur les fonds rocheux des côtes marines. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles de cette espèce peuvent mesurer jusqu'à 22 cm de longueur totale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles de cette espèce peuvent mesurer jusqu'à 22 cm de longueur totale.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Halichoeres aestuaricola et l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce ne présente aucun intérêt commercial et ne fait pas partie des espèces consommées[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ne présente aucun intérêt commercial et ne fait pas partie des espèces consommées.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin aestuarius, « estuaire », et du suffixe -cola, « habitant », lui a été donné en référence à son biotope[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin aestuarius, « estuaire », et du suffixe -cola, « habitant », lui a été donné en référence à son biotope.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(es) William A. Bussing, « Halichoeres aestuaricola, un nombre para reemplazar al del pez lábrido del Pacífico oriental tropical, Iridio bimaculata Wilson, con una redescripción con base en nuevo material », Brenesia, Costa Rica, vol. 1972, no 1,‎ 1972, p. 3-7 (ISSN 0304-3711).</t>
         </is>
